--- a/biology/Botanique/Paracryphiaceae/Paracryphiaceae.xlsx
+++ b/biology/Botanique/Paracryphiaceae/Paracryphiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Paracryphiacées est une famille de plantes dicotylédones. Ce sont des arbres à feuilles vernissées, endémiques des forêts denses, humides, de Nouvelle-Calédonie.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Paracryphia, composé des mots grecs παρά / para, « presque », et κρυφίως / kryfios, « en cachette ; en secret », probablement en référence à  ses discrètes inflorescences.
 </t>
@@ -542,11 +556,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour la classification phylogénétique APG (1998)[1] la position de cette famille est incertaine.
-La classification phylogénétique APG II (2003)[2] inclus cette famille au base des Campanulidées.
-La classification phylogénétique APG III (2009)[3] inclus cette famille dans l'ordre Paracryphiales et y inclut les genres précédemment placés dans les familles Quintiniaceae et Sphenostemonaceae. Les genres Quintinia et Sphenostemon pour être précis.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour la classification phylogénétique APG (1998) la position de cette famille est incertaine.
+La classification phylogénétique APG II (2003) inclus cette famille au base des Campanulidées.
+La classification phylogénétique APG III (2009) inclus cette famille dans l'ordre Paracryphiales et y inclut les genres précédemment placés dans les familles Quintiniaceae et Sphenostemonaceae. Les genres Quintinia et Sphenostemon pour être précis.
 </t>
         </is>
       </c>
@@ -575,13 +591,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (12 Jul 2010)[4] et Angiosperm Phylogeny Website                        (12 Jul 2010)[5] (Les plus conformes à APGIII) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (12 Jul 2010) et Angiosperm Phylogeny Website                        (12 Jul 2010) (Les plus conformes à APGIII) :
 Paracryphia Baker f.
 Quintinia (en) A de Candolle (ancienne Quintiniaceae)
 Sphenostemon (en) Baillon    (ancienne Sphenostemonaceae)
-Selon DELTA Angio           (12 Jul 2010)[6] :
+Selon DELTA Angio           (12 Jul 2010) :
 genre Paracryphia</t>
         </is>
       </c>
@@ -610,9 +628,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (12 Jul 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (12 Jul 2010) :
 genre Paracryphia
 Paracryphia alticola
 genre Quintinia
